--- a/DATALOGGER_BP_V1/DATALOGGER_BP_V1 BOM.xlsx
+++ b/DATALOGGER_BP_V1/DATALOGGER_BP_V1 BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Item #</t>
   </si>
@@ -155,36 +155,12 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>0.1µF ±5% 10V Ceramic Capacitor  0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>LMK212SD104JG-T</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.mx/en/products/detail/taiyo-yuden/LMK212SD104JG-T/930485</t>
-  </si>
-  <si>
     <t>J1, J2, J3, J4, J5, J6, J7, J7</t>
   </si>
   <si>
     <t>J9</t>
   </si>
   <si>
-    <t>Stackpole Electronics Inc</t>
-  </si>
-  <si>
-    <t>RMCF0805FT100R</t>
-  </si>
-  <si>
-    <t>100 Ohms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.mx/en/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
-  </si>
-  <si>
     <t>Phoenix Contact</t>
   </si>
   <si>
@@ -203,17 +179,98 @@
     <t>https://www.digikey.com.mx/en/products/detail/phoenix-contact/1769010/2511468</t>
   </si>
   <si>
-    <t>and for the item 6, I want the terminal block plug</t>
-  </si>
-  <si>
-    <t>DATALOGGER_BP_V1 BOM  (Sample Bill of Materials)</t>
+    <t>DATALOGGER_BP_V1 BOM</t>
+  </si>
+  <si>
+    <t>4700pF ±10% 16V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>RC0805FR-07300RL</t>
+  </si>
+  <si>
+    <t>300 Ohms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0805FR-07300RL/727848</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012207037/5453892</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24</t>
+  </si>
+  <si>
+    <t>10000pF ±5% 10V Ceramic Capacitor C0G, NP0 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012007009/5453434</t>
+  </si>
+  <si>
+    <t>R17, R18, R19, R20, R21, R22, R23, R24</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF34R0V</t>
+  </si>
+  <si>
+    <t>RES SMD 34 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-6ENF34R0V/110995</t>
+  </si>
+  <si>
+    <t>U1, U2, U3, U4, U5, U6, U7, U8</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc.</t>
+  </si>
+  <si>
+    <t>AD620ARZ-REEL7</t>
+  </si>
+  <si>
+    <t>IC INST AMP 1 CIRCUIT 8SOIC</t>
+  </si>
+  <si>
+    <t>8-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/AD620ARZ-REEL7/617757?s=N4IgTCBcDaIIIBEBsYAMcBKAtAtBgovgDIDsIAugL5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1 </t>
+  </si>
+  <si>
+    <t>Traco Power</t>
+  </si>
+  <si>
+    <t>TRV 1-1222M</t>
+  </si>
+  <si>
+    <t>Isolated Module DC DC Converter 2 Output 12V -12V   42mA, 42mA 9.6V - 14.4V Input</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/traco-power/TRV-1-1222M/12181352?s=N4IgTCBcDaICoCUBqBGAtCsWCyIC6AvkA</t>
+  </si>
+  <si>
+    <t>and for the item 10, I want the terminal block plug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +334,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -322,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,8 +394,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,12 +438,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -398,9 +457,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -765,25 +837,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="D2" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="D2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -824,13 +896,13 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -851,13 +923,13 @@
       <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -879,13 +951,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="24">
+        <v>885012207037</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>10</v>
@@ -893,8 +965,8 @@
       <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>23</v>
+      <c r="I9" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -908,22 +980,22 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>29</v>
+      <c r="I10" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -931,67 +1003,183 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6">
-        <v>8</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1985247</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="25">
+        <v>885012007009</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1985247</v>
+        <v>37</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>25</v>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="7">
-        <v>1755736</v>
+        <v>1985247</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7">
-        <v>1755736</v>
+        <v>1985247</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>34</v>
+      <c r="I12" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="I13" s="21" t="s">
-        <v>36</v>
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="I14" s="22" t="s">
-        <v>35</v>
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1755736</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1755736</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1000,15 +1188,14 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1"/>
-    <hyperlink ref="I10" r:id="rId2"/>
-    <hyperlink ref="I11" r:id="rId3"/>
-    <hyperlink ref="I12" r:id="rId4"/>
-    <hyperlink ref="I14" r:id="rId5"/>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId2"/>
+    <hyperlink ref="I18" r:id="rId3"/>
+    <hyperlink ref="I10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/DATALOGGER_BP_V1/DATALOGGER_BP_V1 BOM.xlsx
+++ b/DATALOGGER_BP_V1/DATALOGGER_BP_V1 BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mecatronica\Documents\eagle\projects\DATALOGGER_BP_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\eagle\projects\DATALOGGER_BP_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8A27D-6E54-413B-B77E-C585B6C09E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="2592" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Item #</t>
   </si>
@@ -212,21 +213,6 @@
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012007009/5453434</t>
   </si>
   <si>
-    <t>R17, R18, R19, R20, R21, R22, R23, R24</t>
-  </si>
-  <si>
-    <t>Panasonic Electronic Components</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF34R0V</t>
-  </si>
-  <si>
-    <t>RES SMD 34 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-6ENF34R0V/110995</t>
-  </si>
-  <si>
     <t>U1, U2, U3, U4, U5, U6, U7, U8</t>
   </si>
   <si>
@@ -261,12 +247,27 @@
   </si>
   <si>
     <t>and for the item 10, I want the terminal block plug</t>
+  </si>
+  <si>
+    <t>R17, R18, R19, R20, R21, R22, R23, R25</t>
+  </si>
+  <si>
+    <t>TT Electronics/BI</t>
+  </si>
+  <si>
+    <t>22AR200LFTR</t>
+  </si>
+  <si>
+    <t>TRIMMER 200OHM 0.125W J LEAD TOP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.mx/es/products/detail/tt-electronics-bi/22AR200LFTR/3587331</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -454,6 +455,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,12 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -505,7 +506,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="pcbway-400x400.jpg"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="pcbway-400x400.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -815,47 +822,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="D2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -940,7 +947,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -953,7 +960,7 @@
       <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>885012207037</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -969,7 +976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1011,7 +1018,7 @@
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>885012007009</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1027,7 +1034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1056,94 +1063,92 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6">
         <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="6">
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1174,10 +1179,10 @@
     </row>
     <row r="17" spans="9:9">
       <c r="I17" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" ht="14.4">
       <c r="I18" s="20" t="s">
         <v>27</v>
       </c>
@@ -1188,10 +1193,10 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1"/>
-    <hyperlink ref="I16" r:id="rId2"/>
-    <hyperlink ref="I18" r:id="rId3"/>
-    <hyperlink ref="I10" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId5"/>
@@ -1200,12 +1205,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1213,12 +1218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
